--- a/statistics/HistoricalDistanceData/historical_distance/Q5567218-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q5567218-en.xlsx
@@ -31,30 +31,30 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Jay-Z's Glastonbury Wonderwall dig at Noel Gallagher</t>
+  </si>
+  <si>
     <t>Jay-Z confirmed to headline Glastonbury 2008</t>
   </si>
   <si>
-    <t>Jay-Z's Glastonbury Wonderwall dig at Noel Gallagher</t>
-  </si>
-  <si>
     <t>Glasto tix still left</t>
   </si>
   <si>
+    <t>Glastonbury ends on-going ticketing saga</t>
+  </si>
+  <si>
+    <t>UK Festival Awards 2020</t>
+  </si>
+  <si>
     <t>'Middle-aged rockers dilute Glastonbury spirit'</t>
   </si>
   <si>
-    <t>UK Festival Awards 2020</t>
-  </si>
-  <si>
-    <t>Glastonbury ends on-going ticketing saga</t>
+    <t>2008-06-29T00:00:00UTC</t>
   </si>
   <si>
     <t>2008-02-04T00:00:00UTC</t>
   </si>
   <si>
-    <t>2008-06-29T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -67,22 +67,22 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20080721223728/http://www.sundaymirror.co.uk/showbiz/showbiznews/2008/06/29/jay-z-s-glastonbury-wonderwall-dig-at-noel-gallagher-98487-20625795/</t>
+  </si>
+  <si>
     <t>https://web.archive.org/web/20080204153559/http://www.nme.com/news/glastonbury/34049</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20080721223728/http://www.sundaymirror.co.uk/showbiz/showbiznews/2008/06/29/jay-z-s-glastonbury-wonderwall-dig-at-noel-gallagher-98487-20625795/</t>
-  </si>
-  <si>
     <t>https://www.bbc.co.uk/6music/news/20080411_glasto.shtml</t>
   </si>
   <si>
+    <t>https://www.bbc.co.uk/somerset/content/articles/2008/10/02/glastonbury_ticket_feature.shtml</t>
+  </si>
+  <si>
+    <t>http://www.festivalawards.com/</t>
+  </si>
+  <si>
     <t>https://www.telegraph.co.uk/news/uknews/1557183/Middle-aged-rockers-dilute-Glastonbury-spirit.html</t>
-  </si>
-  <si>
-    <t>http://www.festivalawards.com/</t>
-  </si>
-  <si>
-    <t>https://www.bbc.co.uk/somerset/content/articles/2008/10/02/glastonbury_ticket_feature.shtml</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -501,7 +501,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
